--- a/Mifos Automation Excels/Client/2592-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-MORE-AMT-LATE-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2592-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-MORE-AMT-LATE-Makerepayment1.xlsx
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +142,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -221,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -245,6 +253,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,10 +607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,26 +649,26 @@
         <v>5000</v>
       </c>
       <c r="B2" s="9">
-        <v>1403.02</v>
+        <v>1405.83</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
         <v>0</v>
       </c>
       <c r="E2" s="9">
-        <v>3596.98</v>
+        <v>3594.17</v>
       </c>
       <c r="F2" s="6">
-        <v>275.44</v>
+        <v>276.37</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>181.65</v>
+        <v>177.76</v>
       </c>
       <c r="B3" s="6">
-        <v>96.98</v>
+        <v>93.24</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -660,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>84.67</v>
+        <v>84.52</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -688,10 +705,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="B5" s="6">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -705,6 +722,36 @@
       <c r="F5" s="6">
         <v>0</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -814,7 +861,7 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -843,13 +890,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="K3" s="6">
-        <v>887.72</v>
+        <v>888.46</v>
       </c>
       <c r="L3" s="6">
-        <v>887.72</v>
+        <v>888.46</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
@@ -874,25 +921,25 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>864.71</v>
+        <v>868.45</v>
       </c>
       <c r="G4" s="9">
-        <v>3321.54</v>
+        <v>3317.8</v>
       </c>
       <c r="H4" s="6">
-        <v>23.01</v>
+        <v>19.27</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="K4" s="6">
-        <v>887.72</v>
+        <v>887.91</v>
       </c>
       <c r="L4" s="6">
-        <v>612.28</v>
+        <v>611.54</v>
       </c>
       <c r="M4" s="6">
         <v>0</v>
@@ -901,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6">
-        <v>275.44</v>
+        <v>276.37</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -917,13 +964,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>851.06</v>
+        <v>851.09</v>
       </c>
       <c r="G5" s="9">
-        <v>2470.48</v>
+        <v>2466.71</v>
       </c>
       <c r="H5" s="6">
-        <v>36.659999999999997</v>
+        <v>36.630000000000003</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -960,13 +1007,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>863.35</v>
+        <v>863.39</v>
       </c>
       <c r="G6" s="9">
-        <v>1607.13</v>
+        <v>1603.32</v>
       </c>
       <c r="H6" s="6">
-        <v>24.37</v>
+        <v>24.33</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1003,13 +1050,13 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>871.34</v>
+        <v>871.38</v>
       </c>
       <c r="G7" s="6">
-        <v>735.79</v>
+        <v>731.94</v>
       </c>
       <c r="H7" s="6">
-        <v>16.38</v>
+        <v>16.34</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1046,13 +1093,13 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>735.79</v>
+        <v>731.94</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="6">
-        <v>7.26</v>
+        <v>7.22</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1061,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>743.05</v>
+        <v>739.16</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1073,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>743.05</v>
+        <v>739.16</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1134,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1186,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1154,26 +1201,26 @@
         <v>1500</v>
       </c>
       <c r="F2" s="9">
-        <v>1403.02</v>
+        <v>1405.83</v>
       </c>
       <c r="G2" s="6">
-        <v>96.98</v>
+        <v>93.24</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
       </c>
       <c r="I2" s="6">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="J2" s="9">
-        <v>3596.98</v>
+        <v>3594.17</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/2592-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-MORE-AMT-LATE-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2592-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-MORE-AMT-LATE-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -121,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,6 +277,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -319,7 +327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,9 +360,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,6 +412,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -760,10 +802,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,12 +823,13 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -826,17 +869,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -861,9 +905,10 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -901,14 +946,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
         <v>887.72</v>
       </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -944,14 +990,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>276.37</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -987,14 +1034,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1030,14 +1078,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1073,14 +1122,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1116,10 +1166,11 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>739.16</v>
       </c>
     </row>
@@ -1133,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mifos Automation Excels/Client/2592-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-MORE-AMT-LATE-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2592-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-MORE-AMT-LATE-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -126,8 +121,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,14 +142,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -234,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -258,15 +245,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -327,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,26 +338,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,23 +373,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -649,10 +593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +610,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -686,7 +630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>5000</v>
       </c>
@@ -703,9 +647,8 @@
       <c r="F2" s="6">
         <v>276.37</v>
       </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>177.76</v>
       </c>
@@ -725,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -745,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0.93</v>
       </c>
@@ -764,36 +707,6 @@
       <c r="F5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -804,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
